--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1725594.939127848</v>
+        <v>1801124.608792653</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>177.7068938866749</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.1402899668894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>72.65793777463477</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>79.4873442018814</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.0782658775866</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>51.04467479678593</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V7" t="n">
-        <v>81.34678359874785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>125.5215740538448</v>
       </c>
       <c r="I8" t="n">
-        <v>116.0924447782241</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>150.5540262346246</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.35002255071629</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>107.735473811379</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>63.79141683510382</v>
+        <v>73.44364050340566</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21.86696197154526</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185944</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>178.0046694332757</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>125.7541714875905</v>
+        <v>1.900916560956174</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>276.2330889766194</v>
+        <v>280.9746348959504</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467005</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4653217847141</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>128.3004401226191</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>45.87424119343749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>221.932349016858</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>188.1607094910711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>150.2625400855519</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>804.8746789439313</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>386.9108708421181</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y2" t="n">
-        <v>2108.418929351565</v>
+        <v>1584.82310067395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.6292392479589</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C4" t="n">
-        <v>397.6292392479589</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4525,13 +4527,13 @@
         <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>618.4218183914891</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>618.4218183914891</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>397.6292392479589</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2414.382636290375</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.243304314563</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>418.6523285934727</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>418.6523285934727</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>418.6523285934727</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.6523285934727</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113.174258592771</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C8" t="n">
-        <v>1744.21174165236</v>
+        <v>605.6417594126385</v>
       </c>
       <c r="D8" t="n">
-        <v>1385.946043045609</v>
+        <v>605.6417594126385</v>
       </c>
       <c r="E8" t="n">
-        <v>1000.157790447365</v>
+        <v>605.6417594126385</v>
       </c>
       <c r="F8" t="n">
-        <v>589.1718856577575</v>
+        <v>194.655854623031</v>
       </c>
       <c r="G8" t="n">
-        <v>171.2080775559443</v>
+        <v>180.7324505616219</v>
       </c>
       <c r="H8" t="n">
-        <v>171.2080775559443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y8" t="n">
-        <v>2113.174258592771</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.8207968750362</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C10" t="n">
-        <v>500.8207968750362</v>
+        <v>76.51876217462333</v>
       </c>
       <c r="D10" t="n">
-        <v>500.8207968750362</v>
+        <v>76.51876217462333</v>
       </c>
       <c r="E10" t="n">
-        <v>352.9077032926431</v>
+        <v>76.51876217462333</v>
       </c>
       <c r="F10" t="n">
-        <v>206.0177557947327</v>
+        <v>76.51876217462333</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>76.51876217462333</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750362</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.8207968750362</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>467.9934022109799</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C16" t="n">
-        <v>467.9934022109799</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D16" t="n">
-        <v>467.9934022109799</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E16" t="n">
-        <v>467.9934022109799</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>467.9934022109799</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>870.4344461847497</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>649.6418670412196</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5503,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>760.7169704793943</v>
+        <v>788.7865112929638</v>
       </c>
       <c r="C19" t="n">
-        <v>591.7807875514874</v>
+        <v>619.850328365057</v>
       </c>
       <c r="D19" t="n">
-        <v>591.7807875514874</v>
+        <v>469.7336889527212</v>
       </c>
       <c r="E19" t="n">
-        <v>591.7807875514874</v>
+        <v>321.8205953703281</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>788.7865112929638</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.4856756861153</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5494927582084</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>549.4328533458727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>549.4328533458727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516355</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5983,31 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>377.6878657662453</v>
+        <v>199.530035688927</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>199.530035688927</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>199.530035688927</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>199.530035688927</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>199.530035688927</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1008.118460638033</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1008.118460638033</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1008.118460638033</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>1008.118460638033</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>780.1289097400152</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.336330596485</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4368.210994661433</v>
+        <v>268.0733921265323</v>
       </c>
       <c r="C28" t="n">
-        <v>4199.274811733526</v>
+        <v>99.13720919862541</v>
       </c>
       <c r="D28" t="n">
-        <v>4049.15817232119</v>
+        <v>99.13720919862541</v>
       </c>
       <c r="E28" t="n">
-        <v>3901.245078738797</v>
+        <v>99.13720919862541</v>
       </c>
       <c r="F28" t="n">
-        <v>3754.355131240887</v>
+        <v>99.13720919862541</v>
       </c>
       <c r="G28" t="n">
-        <v>3586.179809560707</v>
+        <v>99.13720919862541</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491672</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.859459491672</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.859459491672</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.859459491672</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>4549.859459491672</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X28" t="n">
-        <v>4549.859459491672</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y28" t="n">
-        <v>4549.859459491672</v>
+        <v>449.7218569567721</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1219.892948359297</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="V31" t="n">
-        <v>965.2084601534104</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="W31" t="n">
-        <v>675.7912901164499</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="X31" t="n">
-        <v>447.8017392184325</v>
+        <v>1215.10350803674</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184325</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6913,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.597763704656</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>1089.812348494162</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U37" t="n">
-        <v>800.6837097077201</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V37" t="n">
-        <v>545.9992215018333</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7165,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1369.319866393641</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1369.319866393641</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1369.319866393641</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1079.90269635668</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1079.90269635668</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>859.1101172131499</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7390,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,31 +7426,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>757.4105722479405</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>588.4743893200337</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>290.4446563253048</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>143.5547088273944</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>143.5547088273944</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>143.5547088273944</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1050.956765431391</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>796.2722772255036</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>506.8551071885429</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>939.0590370781803</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123426</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1308.854947839649</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1019.726309053207</v>
+        <v>1347.135927037143</v>
       </c>
       <c r="V46" t="n">
-        <v>765.0418208473205</v>
+        <v>1092.451438831256</v>
       </c>
       <c r="W46" t="n">
-        <v>475.6246508103599</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="X46" t="n">
-        <v>247.6350999123426</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.6350999123426</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165112</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>283.6093329825487</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>50.62661940943559</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>124.3400780863225</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>58.75809465199863</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>81.62963118782743</v>
+        <v>71.97740751952558</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>123.554086051386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>65.20375367702282</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>43.54289162511358</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>23.15965687994564</v>
+        <v>147.01291180658</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>10.00426342195794</v>
+        <v>5.262717502626913</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518769</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="35">
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>14.4554881988891</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>93.2471209357702</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>64.54500427083451</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>64.30500338171939</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>33.38685156731813</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.9748123130254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26326,10 +26328,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721356</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
@@ -26341,19 +26343,19 @@
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="M2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26451,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993016</v>
+        <v>-325308.7188993017</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152435</v>
+        <v>264659.1603152434</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152433</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403475</v>
+        <v>-150535.6453403474</v>
       </c>
       <c r="F6" t="n">
+        <v>374624.3911365486</v>
+      </c>
+      <c r="G6" t="n">
+        <v>374624.3911365483</v>
+      </c>
+      <c r="H6" t="n">
+        <v>374624.3911365487</v>
+      </c>
+      <c r="I6" t="n">
+        <v>374624.3911365486</v>
+      </c>
+      <c r="J6" t="n">
+        <v>198201.1719439556</v>
+      </c>
+      <c r="K6" t="n">
         <v>374624.3911365485</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>374624.3911365485</v>
       </c>
-      <c r="H6" t="n">
-        <v>374624.3911365486</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>239823.3759027113</v>
+      </c>
+      <c r="N6" t="n">
+        <v>374624.3911365487</v>
+      </c>
+      <c r="O6" t="n">
         <v>374624.3911365485</v>
-      </c>
-      <c r="J6" t="n">
-        <v>198201.1719439555</v>
-      </c>
-      <c r="K6" t="n">
-        <v>374624.3911365486</v>
-      </c>
-      <c r="L6" t="n">
-        <v>374624.3911365486</v>
-      </c>
-      <c r="M6" t="n">
-        <v>239823.3759027115</v>
-      </c>
-      <c r="N6" t="n">
-        <v>374624.3911365486</v>
-      </c>
-      <c r="O6" t="n">
-        <v>374624.3911365486</v>
       </c>
       <c r="P6" t="n">
         <v>374624.3911365485</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>146.2158788776823</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>109.0976486891641</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>75.95753524357758</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>207.0356541347096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.8521041946752</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>318.6864258816831</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V7" t="n">
-        <v>170.7908597250802</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>198.4011987105123</v>
       </c>
       <c r="I8" t="n">
-        <v>35.83887146663719</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>16.75577602442632</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>133.8208662910789</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28062,19 +28064,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>565.9730352236569</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>383.8211928074485</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>434.7644551367889</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1801124.608792653</v>
+        <v>1794107.593900942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>177.7068938866749</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72.65793777463477</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>112.200859218067</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>279.0782658775866</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>7.1411495271799</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>49.56431688233871</v>
       </c>
       <c r="H8" t="n">
-        <v>125.5215740538448</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.35002255071629</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>82.35845141792571</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>142.5505026023276</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.44364050340566</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>61.8105299551722</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="G25" t="n">
-        <v>101.2898147863548</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.900916560956174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>77.8682875383153</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>280.9746348959504</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>128.3004401226191</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>94.16481274941241</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>45.87424119343749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>67.62960647440822</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>150.2625400855519</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.82310067395</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.860583733539</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1215.860583733539</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1215.860583733539</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>804.8746789439313</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>386.9108708421181</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205144</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.28885893503</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.82310067395</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.82310067395</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862863</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>127.3348381583794</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>167.2771830507352</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1645.450628940881</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1645.450628940881</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1645.450628940881</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2689.935808667536</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1645.450628940881</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.6042763530502</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="C8" t="n">
-        <v>605.6417594126385</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="D8" t="n">
-        <v>605.6417594126385</v>
+        <v>1381.442801724941</v>
       </c>
       <c r="E8" t="n">
-        <v>605.6417594126385</v>
+        <v>995.6545491266963</v>
       </c>
       <c r="F8" t="n">
-        <v>194.655854623031</v>
+        <v>584.6686443370888</v>
       </c>
       <c r="G8" t="n">
-        <v>180.7324505616219</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1364.743608328862</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.6042763530502</v>
+        <v>1739.708500331691</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>76.51876217462333</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025302</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>352.7420895073561</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>352.7420895073561</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>534.3905543375959</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5524,7 +5524,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>619.850328365057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>469.7336889527212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>321.8205953703281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646857</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>328.5881531307909</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>159.651970202884</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.530035688927</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C25" t="n">
-        <v>199.530035688927</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D25" t="n">
-        <v>199.530035688927</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E25" t="n">
-        <v>199.530035688927</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F25" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324571</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.530035688927</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.0733921265323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>99.13720919862541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>99.13720919862541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>99.13720919862541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>99.13720919862541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>99.13720919862541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>898.5039869983195</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>670.5144361003022</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>449.7218569567721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U31" t="n">
-        <v>1215.10350803674</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V31" t="n">
-        <v>1215.10350803674</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W31" t="n">
-        <v>1215.10350803674</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X31" t="n">
-        <v>1215.10350803674</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>994.3109288932102</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4231.24660305754</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>3976.562114851653</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3687.144944814692</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7186,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1369.319866393641</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1369.319866393641</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1369.319866393641</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>1079.90269635668</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.90269635668</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y40" t="n">
-        <v>859.1101172131499</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>588.4743893200337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>290.4446563253048</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>143.5547088273944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>143.5547088273944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>143.5547088273944</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.0590370781803</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2416896507652</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
         <v>265.3924131404652</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1347.135927037143</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V46" t="n">
-        <v>1092.451438831256</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W46" t="n">
-        <v>803.0342687942954</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X46" t="n">
-        <v>803.0342687942954</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.2416896507652</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>306.1147370139967</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127834</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>213.260391180663</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>136.2262019341691</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>6.064970415884773</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>71.97740751952558</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>86.80494306304016</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279319</v>
       </c>
       <c r="G25" t="n">
-        <v>65.20375367702282</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>147.01291180658</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>120.0525224452879</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>5.262717502626913</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>93.2471209357702</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>124.4198406026824</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>64.54500427083451</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>99.61721462421961</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>135.9748123130254</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721356</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.324672136</v>
@@ -26337,7 +26337,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26346,13 +26346,13 @@
         <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26377,7 +26377,7 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993017</v>
+        <v>-325308.7188993014</v>
       </c>
       <c r="C6" t="n">
         <v>264659.1603152434</v>
@@ -26530,40 +26530,40 @@
         <v>264659.1603152433</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403474</v>
+        <v>-151510.2366000692</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768267</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365483</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.799876827</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768267</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>197226.5806842341</v>
       </c>
       <c r="K6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="L6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="M6" t="n">
-        <v>239823.3759027113</v>
+        <v>238848.7846429897</v>
       </c>
       <c r="N6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="O6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="P6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>146.2158788776823</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>75.95753524357758</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>43.97002962372814</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>102.8521041946752</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.33725304763181</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>364.2198531384563</v>
       </c>
       <c r="H8" t="n">
-        <v>198.4011987105123</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>133.8208662910789</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.92615468724705</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>616.5391140644629</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773026</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>420.3538061121876</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1794107.593900942</v>
+        <v>1799046.856749974</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>252.6255656050527</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.200859218067</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.5689059922966</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>277.3889913079433</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.1411495271799</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.6868869030085</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>49.56431688233871</v>
+        <v>360.4840829176713</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1186,19 +1186,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.35845141792571</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>142.5505026023276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>166.7823093891259</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>61.8105299551722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>56.22629004426802</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>82.76001926167731</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>58.17628735237152</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>271.7818641996879</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>77.8682875383153</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>187.8326399421082</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>62.22551331319344</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>5.562624396424889</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.16481274941241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>73.48079230026484</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>67.62960647440822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>204.5975363621837</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1677.324262309942</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1291.536009711698</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>880.5501049220907</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>462.5862968202775</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2771830507352</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2689.935808667536</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2513.758320981706</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2513.758320981706</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2513.758320981706</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2513.758320981706</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.758320981706</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X5" t="n">
-        <v>2140.292562720626</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1739.708500331691</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>1739.708500331691</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>1381.442801724941</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>995.6545491266963</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F8" t="n">
-        <v>584.6686443370888</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331691</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331691</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766199</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799443</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X13" t="n">
-        <v>330.8254548799443</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>352.7420895073561</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C16" t="n">
-        <v>352.7420895073561</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D16" t="n">
         <v>208.7516828383384</v>
@@ -5433,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>930.2455491523509</v>
       </c>
       <c r="W16" t="n">
-        <v>755.183133481126</v>
+        <v>930.2455491523509</v>
       </c>
       <c r="X16" t="n">
-        <v>755.183133481126</v>
+        <v>930.2455491523509</v>
       </c>
       <c r="Y16" t="n">
-        <v>534.3905543375959</v>
+        <v>709.4529700088208</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,7 +5788,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>328.5881531307909</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="C22" t="n">
-        <v>159.651970202884</v>
+        <v>451.0179107384795</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>300.9012713261437</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045608</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X22" t="n">
-        <v>731.0291971045608</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.2366179610307</v>
+        <v>619.9540936663864</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.9805482336716</v>
+        <v>349.7492534403921</v>
       </c>
       <c r="C25" t="n">
-        <v>241.9805482336716</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="D25" t="n">
-        <v>241.9805482336716</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="E25" t="n">
-        <v>241.9805482336716</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336716</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.9805482336716</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6645,16 +6645,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.18633122244</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1085.400916011945</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>796.2722772255036</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
         <v>796.2722772255036</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7122,22 +7122,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7356,25 +7356,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324571</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3330639344398</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1313.618144594208</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1024.489505807766</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1024.489505807766</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>735.0723357708055</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="44">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>333.7051469529988</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1181.176988976108</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>892.0483501896664</v>
       </c>
       <c r="V46" t="n">
-        <v>964.135741824786</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="W46" t="n">
-        <v>964.135741824786</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="X46" t="n">
-        <v>736.1461909267687</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y46" t="n">
-        <v>515.3536117832385</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814589</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>306.1147370139967</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.2262019341691</v>
+        <v>79.4309254770908</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>6.064970415884773</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>85.35533393470212</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>86.80494306304016</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>90.20767260230116</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>2.105225817279319</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>66.15380910585881</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0705337462563</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>14.45548819888944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>120.0525224452879</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>64.30500338171979</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>156.3591400389014</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>192.3581855871784</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>213.0220289556699</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>148.0667687581244</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>99.61721462421961</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.95002469620556</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.3246721361</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
@@ -26355,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
@@ -26444,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993014</v>
+        <v>-325308.7188993016</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152433</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152433</v>
+        <v>264659.1603152432</v>
       </c>
       <c r="E6" t="n">
-        <v>-151510.2366000692</v>
+        <v>-150633.10446632</v>
       </c>
       <c r="F6" t="n">
-        <v>373649.7998768267</v>
+        <v>374526.9320105767</v>
       </c>
       <c r="G6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="H6" t="n">
-        <v>373649.799876827</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="I6" t="n">
-        <v>373649.7998768267</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="J6" t="n">
-        <v>197226.5806842341</v>
+        <v>198103.7128179834</v>
       </c>
       <c r="K6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="L6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="M6" t="n">
-        <v>238848.7846429897</v>
+        <v>239725.9167767391</v>
       </c>
       <c r="N6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="O6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="P6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105763</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71.29720715930449</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>43.97002962372814</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.95409234429439</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>77.29405031273967</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.33725304763181</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538052008</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.8977664490863</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>364.2198531384563</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>616.5391140644629</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
